--- a/Clab_2nd_part/Монте-Карло/График.xlsx
+++ b/Clab_2nd_part/Монте-Карло/График.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,15 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -51,7 +58,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -76,263 +83,513 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="6"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Метод Монте-Карло</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.858407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.474926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.325074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.198090</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.165546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.142146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.124521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.099753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.090723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.083190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.076810</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.071338</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.066593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.062439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.058773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.055513</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.052595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.049969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.047592</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.045431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.043458</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.041649</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.039984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.038447</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.037024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.035703</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.034473</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.033324</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.032250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.031242</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.030296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.029405</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.028566</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.027772</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.027022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.026311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.025637</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.024996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.024387</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.023806</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.023253</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.022724</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.022219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.021737</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.021274</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.020831</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.020406</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.019998</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$1:$50</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0,858407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0,474926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0,325074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0,246355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0,198090</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0,165546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0,142146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0,124521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0,110773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0,099753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0,090723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0,083190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0,076810</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0,071338</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0,066593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0,062439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0,058773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0,055513</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0,052595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0,049969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0,047592</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0,045431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0,043458</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0,041649</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0,039984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0,038447</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0,037024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0,035703</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0,034473</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0,033324</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0,032250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0,031242</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0,030296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0,029405</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0,028566</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0,027772</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0,027022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0,026311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0,025637</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0,024996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0,024387</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0,023806</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0,023253</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0,022724</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0,022219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0,021737</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0,021274</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0,020831</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0,020406</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0,019998</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$49</c:f>
+              <c:f>Sheet1!$A$1:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0.85840700000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6666669999999999</c:v>
+                  <c:v>0.47492600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4666670000000002</c:v>
+                  <c:v>0.32507399999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.895238</c:v>
+                  <c:v>0.24635499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.339683</c:v>
+                  <c:v>0.19808999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9760460000000002</c:v>
+                  <c:v>0.165546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.283738</c:v>
+                  <c:v>0.14214599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0170720000000002</c:v>
+                  <c:v>0.12452100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2523659999999999</c:v>
+                  <c:v>0.110773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0418400000000001</c:v>
+                  <c:v>9.9752999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.232316</c:v>
+                  <c:v>9.0722999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0584030000000002</c:v>
+                  <c:v>8.319E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2184029999999999</c:v>
+                  <c:v>7.6810000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.070255</c:v>
+                  <c:v>7.1337999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.208186</c:v>
+                  <c:v>6.6592999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0791529999999998</c:v>
+                  <c:v>6.2439000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2003659999999998</c:v>
+                  <c:v>5.8772999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0860799999999999</c:v>
+                  <c:v>5.5513E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.194188</c:v>
+                  <c:v>5.2595000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0916239999999999</c:v>
+                  <c:v>4.9969E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1891850000000002</c:v>
+                  <c:v>4.7592000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0961620000000001</c:v>
+                  <c:v>4.5430999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1850499999999999</c:v>
+                  <c:v>4.3457999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0999439999999998</c:v>
+                  <c:v>4.1648999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.1815769999999999</c:v>
+                  <c:v>3.9983999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.103145</c:v>
+                  <c:v>3.8447000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.178617</c:v>
+                  <c:v>3.7024000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.10589</c:v>
+                  <c:v>3.5702999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.1760649999999999</c:v>
+                  <c:v>3.4472999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1082689999999999</c:v>
+                  <c:v>3.3323999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1738420000000001</c:v>
+                  <c:v>3.2250000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1103499999999999</c:v>
+                  <c:v>3.1241999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1718890000000002</c:v>
+                  <c:v>3.0296E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.112187</c:v>
+                  <c:v>2.9405000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.1701579999999998</c:v>
+                  <c:v>2.8566000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.11382</c:v>
+                  <c:v>2.7772000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.168615</c:v>
+                  <c:v>2.7022000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.115281</c:v>
+                  <c:v>2.6311000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1672289999999998</c:v>
+                  <c:v>2.5637E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1165970000000001</c:v>
+                  <c:v>2.4996000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1659790000000001</c:v>
+                  <c:v>2.4386999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1177869999999999</c:v>
+                  <c:v>2.3806000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.1648450000000001</c:v>
+                  <c:v>2.3252999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.118868</c:v>
+                  <c:v>2.2724000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.1638120000000001</c:v>
+                  <c:v>2.2218999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.119856</c:v>
+                  <c:v>2.1736999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1628669999999999</c:v>
+                  <c:v>2.1274000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.120762</c:v>
+                  <c:v>2.0830999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.1619989999999998</c:v>
+                  <c:v>2.0406000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9997999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3414-40C7-AA5E-38EB7C52166C}"/>
+              <c16:uniqueId val="{00000002-0437-46A4-A258-40EB99E6FC9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -344,13 +601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2087519135"/>
-        <c:axId val="2087529535"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2087519135"/>
+        <c:axId val="283004240"/>
+        <c:axId val="283003408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="283004240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,59 +633,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2087529535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2087529535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -457,9 +661,71 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087519135"/>
+        <c:crossAx val="283003408"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="283003408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283004240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -470,12 +736,12 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -508,13 +774,47 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -525,7 +825,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -541,25 +841,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -571,7 +871,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -579,11 +879,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -615,45 +915,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -665,26 +955,22 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -714,13 +1000,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -730,7 +1018,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -739,13 +1027,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -754,16 +1043,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -772,10 +1062,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -791,15 +1081,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -818,16 +1114,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -836,16 +1133,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -854,16 +1152,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -884,7 +1183,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -892,7 +1191,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -905,17 +1204,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -923,10 +1211,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -947,7 +1235,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -956,14 +1244,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -977,26 +1265,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1013,9 +1302,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1028,8 +1317,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1038,20 +1333,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1073,12 +1368,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.00677</cdr:y>
+      <cdr:x>0.06667</cdr:x>
+      <cdr:y>0.06076</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.09547</cdr:x>
-      <cdr:y>0.05869</cdr:y>
+      <cdr:x>0.48333</cdr:x>
+      <cdr:y>0.22743</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1087,24 +1382,32 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="28575"/>
-          <a:ext cx="742950" cy="219075"/>
+          <a:off x="304800" y="166688"/>
+          <a:ext cx="1905000" cy="457200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>Число</a:t>
+            <a:t>разница между</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t> </a:t>
+            <a:t> ид.знач </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>PI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> и изм. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1117,12 +1420,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.8984</cdr:x>
-      <cdr:y>0.8623</cdr:y>
+      <cdr:x>0.6625</cdr:x>
+      <cdr:y>0.75521</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.91874</cdr:y>
+      <cdr:y>0.94618</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1131,22 +1434,21 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6991293" y="3638531"/>
-          <a:ext cx="790633" cy="238153"/>
+          <a:off x="3028950" y="2071687"/>
+          <a:ext cx="1543050" cy="523875"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t> Итерации</a:t>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>количество испытаний</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -1420,258 +1722,263 @@
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>4</v>
+        <v>0.85840700000000003</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2.6666669999999999</v>
+        <v>0.47492600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3.4666670000000002</v>
+        <v>0.32507399999999997</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2.895238</v>
+        <v>0.24635499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3.339683</v>
+        <v>0.19808999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2.9760460000000002</v>
+        <v>0.165546</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3.283738</v>
+        <v>0.14214599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3.0170720000000002</v>
+        <v>0.12452100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3.2523659999999999</v>
+        <v>0.110773</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3.0418400000000001</v>
+        <v>9.9752999999999994E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3.232316</v>
+        <v>9.0722999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3.0584030000000002</v>
+        <v>8.319E-2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3.2184029999999999</v>
+        <v>7.6810000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3.070255</v>
+        <v>7.1337999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3.208186</v>
+        <v>6.6592999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3.0791529999999998</v>
+        <v>6.2439000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3.2003659999999998</v>
+        <v>5.8772999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3.0860799999999999</v>
+        <v>5.5513E-2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3.194188</v>
+        <v>5.2595000000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3.0916239999999999</v>
+        <v>4.9969E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>3.1891850000000002</v>
+        <v>4.7592000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3.0961620000000001</v>
+        <v>4.5430999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3.1850499999999999</v>
+        <v>4.3457999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3.0999439999999998</v>
+        <v>4.1648999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3.1815769999999999</v>
+        <v>3.9983999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3.103145</v>
+        <v>3.8447000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3.178617</v>
+        <v>3.7024000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>3.10589</v>
+        <v>3.5702999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>3.1760649999999999</v>
+        <v>3.4472999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3.1082689999999999</v>
+        <v>3.3323999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3.1738420000000001</v>
+        <v>3.2250000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3.1103499999999999</v>
+        <v>3.1241999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3.1718890000000002</v>
+        <v>3.0296E-2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3.112187</v>
+        <v>2.9405000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3.1701579999999998</v>
+        <v>2.8566000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3.11382</v>
+        <v>2.7772000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>3.168615</v>
+        <v>2.7022000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3.115281</v>
+        <v>2.6311000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>3.1672289999999998</v>
+        <v>2.5637E-2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3.1165970000000001</v>
+        <v>2.4996000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>3.1659790000000001</v>
+        <v>2.4386999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3.1177869999999999</v>
+        <v>2.3806000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>3.1648450000000001</v>
+        <v>2.3252999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>3.118868</v>
+        <v>2.2724000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>3.1638120000000001</v>
+        <v>2.2218999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>3.119856</v>
+        <v>2.1736999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>3.1628669999999999</v>
+        <v>2.1274000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>3.120762</v>
+        <v>2.0830999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>3.1619989999999998</v>
+        <v>2.0406000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>1.9997999999999998E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
